--- a/hw6/code/final.xlsx
+++ b/hw6/code/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\hw\hw6\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA4B947-D2E0-4F9A-A4EA-065E37CC7666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE11A0-F699-40C6-8717-35714AE8AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{330222DD-8FC1-4FA6-88DF-0116CB0E5408}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -218,6 +218,1172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>implied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.11041895386427644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10915732193536341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10792621944663856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10672887639094109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10556888484477046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10445020702359331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10337717269320643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10235446194295586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10138706977475222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10048024662989133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9639412567634228E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8870039113722108E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8177507606034276E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7566924969222438E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7042937006020041E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6609514657165774E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6269757487198376E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6025702547750724E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5878199397825895E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5826843039077195E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5869926895534682E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.6004542431117959E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6226681112338258E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.653141677754612E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6913097394566688E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7365605700251615E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.7882541310075122E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8457399550077748E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9083780351266401E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.9755538919487574E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10046679323297722</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10121211731795907</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10198639116209712</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10278511164962179</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10360409009462264</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10443961330114299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10528838137061759</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.10614739289195438</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10701416031841678</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.10788645373273907</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.10876222339075163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D96-40C6-9736-326FF17FB3FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="952130527"/>
+        <c:axId val="1043850351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="952130527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1043850351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1043850351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="952130527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD03E2D-5FC3-49F3-8577-804CE6D93797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,11 +1685,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D237DC4-ACDF-43F3-91D9-CCC88D9F0118}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -576,7 +1746,10 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" cm="1">
+        <f t="array" ref="C7">_xll.DISTRIBUTION.DOUBLE_EXPONENTIAL()</f>
+        <v>140719470522528</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
@@ -601,291 +1774,538 @@
         <f t="array" ref="B10:B50">_xlfn.SEQUENCE(41, 1, 80, 1)</f>
         <v>80</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5" cm="1">
+        <f t="array" ref="C10">_xll.BSM.PUT.VALUE(r_, s0, sigma, B10, t, m)</f>
+        <v>7.9183464446038743E-2</v>
+      </c>
+      <c r="D10" s="5" cm="1">
+        <f t="array" ref="D10">_xll.OPTION.IMPLIED(s0, C10, B10)</f>
+        <v>0.11041895386427644</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>81</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5" cm="1">
+        <f t="array" ref="C11">_xll.BSM.PUT.VALUE(r_, s0, sigma, B11, t, m)</f>
+        <v>0.10019029638563959</v>
+      </c>
+      <c r="D11" s="5" cm="1">
+        <f t="array" ref="D11">_xll.OPTION.IMPLIED(s0, C11, B11)</f>
+        <v>0.10915732193536341</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>82</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" cm="1">
+        <f t="array" ref="C12">_xll.BSM.PUT.VALUE(r_, s0, sigma, B12, t, m)</f>
+        <v>0.12632991178567865</v>
+      </c>
+      <c r="D12" s="5" cm="1">
+        <f t="array" ref="D12">_xll.OPTION.IMPLIED(s0, C12, B12)</f>
+        <v>0.10792621944663856</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>83</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5" cm="1">
+        <f t="array" ref="C13">_xll.BSM.PUT.VALUE(r_, s0, sigma, B13, t, m)</f>
+        <v>0.15872905452998554</v>
+      </c>
+      <c r="D13" s="5" cm="1">
+        <f t="array" ref="D13">_xll.OPTION.IMPLIED(s0, C13, B13)</f>
+        <v>0.10672887639094109</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>84</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5" cm="1">
+        <f t="array" ref="C14">_xll.BSM.PUT.VALUE(r_, s0, sigma, B14, t, m)</f>
+        <v>0.19872240506530758</v>
+      </c>
+      <c r="D14" s="5" cm="1">
+        <f t="array" ref="D14">_xll.OPTION.IMPLIED(s0, C14, B14)</f>
+        <v>0.10556888484477046</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>85</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5" cm="1">
+        <f t="array" ref="C15">_xll.BSM.PUT.VALUE(r_, s0, sigma, B15, t, m)</f>
+        <v>0.24787747116153636</v>
+      </c>
+      <c r="D15" s="5" cm="1">
+        <f t="array" ref="D15">_xll.OPTION.IMPLIED(s0, C15, B15)</f>
+        <v>0.10445020702359331</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>86</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5" cm="1">
+        <f t="array" ref="C16">_xll.BSM.PUT.VALUE(r_, s0, sigma, B16, t, m)</f>
+        <v>0.3080172663994647</v>
+      </c>
+      <c r="D16" s="5" cm="1">
+        <f t="array" ref="D16">_xll.OPTION.IMPLIED(s0, C16, B16)</f>
+        <v>0.10337717269320643</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>87</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5" cm="1">
+        <f t="array" ref="C17">_xll.BSM.PUT.VALUE(r_, s0, sigma, B17, t, m)</f>
+        <v>0.38123822216082992</v>
+      </c>
+      <c r="D17" s="5" cm="1">
+        <f t="array" ref="D17">_xll.OPTION.IMPLIED(s0, C17, B17)</f>
+        <v>0.10235446194295586</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>88</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5" cm="1">
+        <f t="array" ref="C18">_xll.BSM.PUT.VALUE(r_, s0, sigma, B18, t, m)</f>
+        <v>0.46992005270686654</v>
+      </c>
+      <c r="D18" s="5" cm="1">
+        <f t="array" ref="D18">_xll.OPTION.IMPLIED(s0, C18, B18)</f>
+        <v>0.10138706977475222</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>89</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" cm="1">
+        <f t="array" ref="C19">_xll.BSM.PUT.VALUE(r_, s0, sigma, B19, t, m)</f>
+        <v>0.57672359091488268</v>
+      </c>
+      <c r="D19" s="5" cm="1">
+        <f t="array" ref="D19">_xll.OPTION.IMPLIED(s0, C19, B19)</f>
+        <v>0.10048024662989133</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>90</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="5" cm="1">
+        <f t="array" ref="C20">_xll.BSM.PUT.VALUE(r_, s0, sigma, B20, t, m)</f>
+        <v>0.70457222196833591</v>
+      </c>
+      <c r="D20" s="5" cm="1">
+        <f t="array" ref="D20">_xll.OPTION.IMPLIED(s0, C20, B20)</f>
+        <v>9.9639412567634228E-2</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>91</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5" cm="1">
+        <f t="array" ref="C21">_xll.BSM.PUT.VALUE(r_, s0, sigma, B21, t, m)</f>
+        <v>0.85661249924901561</v>
+      </c>
+      <c r="D21" s="5" cm="1">
+        <f t="array" ref="D21">_xll.OPTION.IMPLIED(s0, C21, B21)</f>
+        <v>9.8870039113722108E-2</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>92</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5" cm="1">
+        <f t="array" ref="C22">_xll.BSM.PUT.VALUE(r_, s0, sigma, B22, t, m)</f>
+        <v>1.0361505902065389</v>
+      </c>
+      <c r="D22" s="5" cm="1">
+        <f t="array" ref="D22">_xll.OPTION.IMPLIED(s0, C22, B22)</f>
+        <v>9.8177507606034276E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>93</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5" cm="1">
+        <f t="array" ref="C23">_xll.BSM.PUT.VALUE(r_, s0, sigma, B23, t, m)</f>
+        <v>1.2465622555036937</v>
+      </c>
+      <c r="D23" s="5" cm="1">
+        <f t="array" ref="D23">_xll.OPTION.IMPLIED(s0, C23, B23)</f>
+        <v>9.7566924969222438E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>94</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="5" cm="1">
+        <f t="array" ref="C24">_xll.BSM.PUT.VALUE(r_, s0, sigma, B24, t, m)</f>
+        <v>1.4911782269690264</v>
+      </c>
+      <c r="D24" s="5" cm="1">
+        <f t="array" ref="D24">_xll.OPTION.IMPLIED(s0, C24, B24)</f>
+        <v>9.7042937006020041E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>95</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="5" cm="1">
+        <f t="array" ref="C25">_xll.BSM.PUT.VALUE(r_, s0, sigma, B25, t, m)</f>
+        <v>1.7731489310387154</v>
+      </c>
+      <c r="D25" s="5" cm="1">
+        <f t="array" ref="D25">_xll.OPTION.IMPLIED(s0, C25, B25)</f>
+        <v>9.6609514657165774E-2</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>96</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="5" cm="1">
+        <f t="array" ref="C26">_xll.BSM.PUT.VALUE(r_, s0, sigma, B26, t, m)</f>
+        <v>2.0952983300861021</v>
+      </c>
+      <c r="D26" s="5" cm="1">
+        <f t="array" ref="D26">_xll.OPTION.IMPLIED(s0, C26, B26)</f>
+        <v>9.6269757487198376E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>97</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="5" cm="1">
+        <f t="array" ref="C27">_xll.BSM.PUT.VALUE(r_, s0, sigma, B27, t, m)</f>
+        <v>2.4599786594763842</v>
+      </c>
+      <c r="D27" s="5" cm="1">
+        <f t="array" ref="D27">_xll.OPTION.IMPLIED(s0, C27, B27)</f>
+        <v>9.6025702547750724E-2</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>98</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="5" cm="1">
+        <f t="array" ref="C28">_xll.BSM.PUT.VALUE(r_, s0, sigma, B28, t, m)</f>
+        <v>2.8689424294916392</v>
+      </c>
+      <c r="D28" s="5" cm="1">
+        <f t="array" ref="D28">_xll.OPTION.IMPLIED(s0, C28, B28)</f>
+        <v>9.5878199397825895E-2</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>99</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="5" cm="1">
+        <f t="array" ref="C29">_xll.BSM.PUT.VALUE(r_, s0, sigma, B29, t, m)</f>
+        <v>3.3232457263591115</v>
+      </c>
+      <c r="D29" s="5" cm="1">
+        <f t="array" ref="D29">_xll.OPTION.IMPLIED(s0, C29, B29)</f>
+        <v>9.5826843039077195E-2</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>100</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="5" cm="1">
+        <f t="array" ref="C30">_xll.BSM.PUT.VALUE(r_, s0, sigma, B30, t, m)</f>
+        <v>3.8231925394515471</v>
+      </c>
+      <c r="D30" s="5" cm="1">
+        <f t="array" ref="D30">_xll.OPTION.IMPLIED(s0, C30, B30)</f>
+        <v>9.5869926895534682E-2</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>101</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="5" cm="1">
+        <f t="array" ref="C31">_xll.BSM.PUT.VALUE(r_, s0, sigma, B31, t, m)</f>
+        <v>4.3683312793488227</v>
+      </c>
+      <c r="D31" s="5" cm="1">
+        <f t="array" ref="D31">_xll.OPTION.IMPLIED(s0, C31, B31)</f>
+        <v>9.6004542431117959E-2</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>102</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="5" cm="1">
+        <f t="array" ref="C32">_xll.BSM.PUT.VALUE(r_, s0, sigma, B32, t, m)</f>
+        <v>4.9574977412170256</v>
+      </c>
+      <c r="D32" s="5" cm="1">
+        <f t="array" ref="D32">_xll.OPTION.IMPLIED(s0, C32, B32)</f>
+        <v>9.6226681112338258E-2</v>
+      </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>103</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="5" cm="1">
+        <f t="array" ref="C33">_xll.BSM.PUT.VALUE(r_, s0, sigma, B33, t, m)</f>
+        <v>5.5889011803945792</v>
+      </c>
+      <c r="D33" s="5" cm="1">
+        <f t="array" ref="D33">_xll.OPTION.IMPLIED(s0, C33, B33)</f>
+        <v>9.653141677754612E-2</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>104</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="5" cm="1">
+        <f t="array" ref="C34">_xll.BSM.PUT.VALUE(r_, s0, sigma, B34, t, m)</f>
+        <v>6.2602397576865059</v>
+      </c>
+      <c r="D34" s="5" cm="1">
+        <f t="array" ref="D34">_xll.OPTION.IMPLIED(s0, C34, B34)</f>
+        <v>9.6913097394566688E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>105</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="5" cm="1">
+        <f t="array" ref="C35">_xll.BSM.PUT.VALUE(r_, s0, sigma, B35, t, m)</f>
+        <v>6.9688343632972476</v>
+      </c>
+      <c r="D35" s="5" cm="1">
+        <f t="array" ref="D35">_xll.OPTION.IMPLIED(s0, C35, B35)</f>
+        <v>9.7365605700251615E-2</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>106</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="5" cm="1">
+        <f t="array" ref="C36">_xll.BSM.PUT.VALUE(r_, s0, sigma, B36, t, m)</f>
+        <v>7.7117620684712307</v>
+      </c>
+      <c r="D36" s="5" cm="1">
+        <f t="array" ref="D36">_xll.OPTION.IMPLIED(s0, C36, B36)</f>
+        <v>9.7882541310075122E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>107</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="5" cm="1">
+        <f t="array" ref="C37">_xll.BSM.PUT.VALUE(r_, s0, sigma, B37, t, m)</f>
+        <v>8.4859814688547033</v>
+      </c>
+      <c r="D37" s="5" cm="1">
+        <f t="array" ref="D37">_xll.OPTION.IMPLIED(s0, C37, B37)</f>
+        <v>9.8457399550077748E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>108</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="5" cm="1">
+        <f t="array" ref="C38">_xll.BSM.PUT.VALUE(r_, s0, sigma, B38, t, m)</f>
+        <v>9.288443176874793</v>
+      </c>
+      <c r="D38" s="5" cm="1">
+        <f t="array" ref="D38">_xll.OPTION.IMPLIED(s0, C38, B38)</f>
+        <v>9.9083780351266401E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>109</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="5" cm="1">
+        <f t="array" ref="C39">_xll.BSM.PUT.VALUE(r_, s0, sigma, B39, t, m)</f>
+        <v>10.116177961343283</v>
+      </c>
+      <c r="D39" s="5" cm="1">
+        <f t="array" ref="D39">_xll.OPTION.IMPLIED(s0, C39, B39)</f>
+        <v>9.9755538919487574E-2</v>
+      </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>110</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="5" cm="1">
+        <f t="array" ref="C40">_xll.BSM.PUT.VALUE(r_, s0, sigma, B40, t, m)</f>
+        <v>10.966359488967413</v>
+      </c>
+      <c r="D40" s="5" cm="1">
+        <f t="array" ref="D40">_xll.OPTION.IMPLIED(s0, C40, B40)</f>
+        <v>0.10046679323297722</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>111</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="5" cm="1">
+        <f t="array" ref="C41">_xll.BSM.PUT.VALUE(r_, s0, sigma, B41, t, m)</f>
+        <v>11.836352553133949</v>
+      </c>
+      <c r="D41" s="5" cm="1">
+        <f t="array" ref="D41">_xll.OPTION.IMPLIED(s0, C41, B41)</f>
+        <v>0.10121211731795907</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>112</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="5" cm="1">
+        <f t="array" ref="C42">_xll.BSM.PUT.VALUE(r_, s0, sigma, B42, t, m)</f>
+        <v>12.723734422356983</v>
+      </c>
+      <c r="D42" s="5" cm="1">
+        <f t="array" ref="D42">_xll.OPTION.IMPLIED(s0, C42, B42)</f>
+        <v>0.10198639116209712</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>113</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="5" cm="1">
+        <f t="array" ref="C43">_xll.BSM.PUT.VALUE(r_, s0, sigma, B43, t, m)</f>
+        <v>13.626313675374846</v>
+      </c>
+      <c r="D43" s="5" cm="1">
+        <f t="array" ref="D43">_xll.OPTION.IMPLIED(s0, C43, B43)</f>
+        <v>0.10278511164962179</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>114</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="5" cm="1">
+        <f t="array" ref="C44">_xll.BSM.PUT.VALUE(r_, s0, sigma, B44, t, m)</f>
+        <v>14.542123110382448</v>
+      </c>
+      <c r="D44" s="5" cm="1">
+        <f t="array" ref="D44">_xll.OPTION.IMPLIED(s0, C44, B44)</f>
+        <v>0.10360409009462264</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>115</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="5" cm="1">
+        <f t="array" ref="C45">_xll.BSM.PUT.VALUE(r_, s0, sigma, B45, t, m)</f>
+        <v>15.469416177684465</v>
+      </c>
+      <c r="D45" s="5" cm="1">
+        <f t="array" ref="D45">_xll.OPTION.IMPLIED(s0, C45, B45)</f>
+        <v>0.10443961330114299</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>116</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="5" cm="1">
+        <f t="array" ref="C46">_xll.BSM.PUT.VALUE(r_, s0, sigma, B46, t, m)</f>
+        <v>16.406652865505833</v>
+      </c>
+      <c r="D46" s="5" cm="1">
+        <f t="array" ref="D46">_xll.OPTION.IMPLIED(s0, C46, B46)</f>
+        <v>0.10528838137061759</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>117</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="5" cm="1">
+        <f t="array" ref="C47">_xll.BSM.PUT.VALUE(r_, s0, sigma, B47, t, m)</f>
+        <v>17.352482190671253</v>
+      </c>
+      <c r="D47" s="5" cm="1">
+        <f t="array" ref="D47">_xll.OPTION.IMPLIED(s0, C47, B47)</f>
+        <v>0.10614739289195438</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>118</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="C48" s="5" cm="1">
+        <f t="array" ref="C48">_xll.BSM.PUT.VALUE(r_, s0, sigma, B48, t, m)</f>
+        <v>18.305728278194152</v>
+      </c>
+      <c r="D48" s="5" cm="1">
+        <f t="array" ref="D48">_xll.OPTION.IMPLIED(s0, C48, B48)</f>
+        <v>0.10701416031841678</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>119</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="C49" s="5" cm="1">
+        <f t="array" ref="C49">_xll.BSM.PUT.VALUE(r_, s0, sigma, B49, t, m)</f>
+        <v>19.265368608886178</v>
+      </c>
+      <c r="D49" s="5" cm="1">
+        <f t="array" ref="D49">_xll.OPTION.IMPLIED(s0, C49, B49)</f>
+        <v>0.10788645373273907</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>120</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="C50" s="5" cm="1">
+        <f t="array" ref="C50">_xll.BSM.PUT.VALUE(r_, s0, sigma, B50, t, m)</f>
+        <v>20.23051647858513</v>
+      </c>
+      <c r="D50" s="5" cm="1">
+        <f t="array" ref="D50">_xll.OPTION.IMPLIED(s0, C50, B50)</f>
+        <v>0.10876222339075163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hw6/code/final.xlsx
+++ b/hw6/code/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\hw\hw6\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE11A0-F699-40C6-8717-35714AE8AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C7A03-DB85-4DDF-B4C9-303760AF35FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{330222DD-8FC1-4FA6-88DF-0116CB0E5408}"/>
   </bookViews>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C7" s="1" cm="1">
         <f t="array" ref="C7">_xll.DISTRIBUTION.DOUBLE_EXPONENTIAL()</f>
-        <v>140719470522528</v>
+        <v>140719445749920</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
